--- a/data/trans_dic/P15_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con familiares convivientes con COVID-19</t>
+          <t>Población con familiares convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -666,12 +667,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -686,12 +687,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -706,12 +707,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>20,17%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 14,39</t>
+          <t>0,0; 14,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,89; 31,16</t>
+          <t>10,85; 43,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 13,54</t>
+          <t>1,87; 17,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 19,75</t>
+          <t>6,82; 29,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 10,44</t>
+          <t>1,18; 10,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,27; 21,41</t>
+          <t>12,4; 31,58</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,65</t>
+          <t>0,0; 10,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,43</t>
+          <t>0,0; 10,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,76</t>
+          <t>0,0; 15,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 15,08</t>
+          <t>0,0; 14,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 14,08</t>
+          <t>1,78; 14,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>0,0; 5,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,48</t>
+          <t>0,0; 5,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,92</t>
+          <t>0,0; 8,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 11,05</t>
+          <t>2,25; 11,51</t>
         </is>
       </c>
     </row>
@@ -936,22 +937,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,37 +962,37 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>10,54%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,72</t>
+          <t>0,0; 7,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,0</t>
+          <t>0,0; 7,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 8,66</t>
+          <t>0,0; 12,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 14,07</t>
+          <t>3,59; 20,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 8,56</t>
+          <t>1,04; 9,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 16,06</t>
+          <t>5,63; 19,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,24</t>
+          <t>0,0; 3,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,59</t>
+          <t>1,74; 8,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,89; 13,45</t>
+          <t>6,23; 16,1</t>
         </is>
       </c>
     </row>
@@ -1081,57 +1082,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>0,0; 7,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,38</t>
+          <t>0,0; 7,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 19,29</t>
+          <t>5,87; 20,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,88</t>
+          <t>0,0; 8,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,62</t>
+          <t>0,0; 7,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,63</t>
+          <t>1,06; 10,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 13,24</t>
+          <t>3,66; 14,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,56</t>
+          <t>0,0; 3,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,7</t>
+          <t>0,56; 5,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,85</t>
+          <t>1,09; 6,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 14,44</t>
+          <t>5,5; 14,47</t>
         </is>
       </c>
     </row>
@@ -1226,52 +1227,52 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>10,33%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,0; 6,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 13,28</t>
+          <t>2,64; 16,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,42</t>
+          <t>0,0; 9,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,22</t>
+          <t>0,0; 11,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 14,27</t>
+          <t>5,61; 24,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 17,86</t>
+          <t>5,99; 24,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0,0; 3,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,0; 3,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 8,0</t>
+          <t>2,33; 10,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 12,86</t>
+          <t>5,86; 16,54</t>
         </is>
       </c>
     </row>
@@ -1356,27 +1357,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1386,32 +1387,32 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,12%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,46</t>
+          <t>0,0; 13,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,14</t>
+          <t>0,0; 12,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,96</t>
+          <t>0,0; 15,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,94</t>
+          <t>0,0; 12,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,78</t>
+          <t>0,0; 9,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,78</t>
+          <t>0,0; 8,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 5,74</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,19</t>
+          <t>0,0; 7,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,55</t>
+          <t>0,0; 5,9</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>9,7%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,89</t>
+          <t>0,31; 2,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,99</t>
+          <t>0,56; 3,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,31</t>
+          <t>1,4; 5,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,72; 12,74</t>
+          <t>6,78; 14,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,63</t>
+          <t>0,24; 2,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,73</t>
+          <t>0,21; 1,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,39</t>
+          <t>2,42; 6,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,94</t>
+          <t>6,39; 12,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,34</t>
+          <t>0,4; 1,9</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,42</t>
+          <t>0,57; 2,17</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,29</t>
+          <t>2,38; 4,96</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,52</t>
+          <t>7,59; 12,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1639,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con familiares convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2970</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31322</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7802</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19125</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10772</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>50447</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15529</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13844; 55388</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2249; 21347</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8356; 36395</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2662; 24739</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>31010; 78963</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3018</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6428</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6236</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8532</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3018</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6428</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14767</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14341</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17450</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22187</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22016</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2254; 18822</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15555</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18278</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22054</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6306; 32283</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2437</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2637</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4979</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13235</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8389</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22401</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2437</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13368</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>35636</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11108</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12099</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16748</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4939; 28318</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11291</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2179; 19998</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11292; 38341</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12299</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15639</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5985; 27607</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21080; 54440</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4595</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2125</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>18303</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4059</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4343</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7514</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12877</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4059</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8938</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9639</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>31180</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13881</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11737</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9168; 31975</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 15955</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 17083</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1969; 18948</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6310; 24567</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13411</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2258; 22356</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3799; 22993</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18083; 47558</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1679</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9682</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11183</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12627</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12862</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>22309</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9054</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3250; 19846</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9548</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13229</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5266; 23238</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5552; 22690</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9293</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10387</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5259; 24118</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12647; 35695</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2388</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4211</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2246</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2087</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4211</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2246</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11894</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13944</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13891</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10894</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10638</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16081</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14167</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15005</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11849</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>7843</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>13476</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>22391</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>81024</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>8059</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8486</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>34888</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>75561</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>15902</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>21962</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>57279</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>156585</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2379; 20383</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4997; 29140</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>10667; 42253</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>53498; 112509</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2072; 19557</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2139; 19497</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>20366; 54402</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>52741; 101406</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6509; 30844</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>11039; 41791</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>38275; 79653</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>122560; 198278</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>